--- a/data/formatted/playoffdata200001.xlsx
+++ b/data/formatted/playoffdata200001.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\petri\Documents\CS-4641\machine-learning-madness\data\formatted\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C98FE2E-B961-48DB-926B-F242ACA83B34}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{465AF45D-BF23-4F2E-B8A9-F7155DBBB950}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7360" xr2:uid="{E8C46CE6-B3CC-45AE-88BE-487952C6FFE1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E8C46CE6-B3CC-45AE-88BE-487952C6FFE1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="70">
   <si>
     <t>season</t>
   </si>
@@ -78,9 +78,6 @@
     <t>Xavier</t>
   </si>
   <si>
-    <t>Ole Miss</t>
-  </si>
-  <si>
     <t>Iona</t>
   </si>
   <si>
@@ -120,9 +117,6 @@
     <t>Hofstra</t>
   </si>
   <si>
-    <t xml:space="preserve">USC </t>
-  </si>
-  <si>
     <t>Oklahoma State</t>
   </si>
   <si>
@@ -153,9 +147,6 @@
     <t xml:space="preserve">Fresno State </t>
   </si>
   <si>
-    <t>California</t>
-  </si>
-  <si>
     <t>Gonzaga</t>
   </si>
   <si>
@@ -186,30 +177,18 @@
     <t xml:space="preserve">Providence </t>
   </si>
   <si>
-    <t>UNC</t>
-  </si>
-  <si>
     <t>Princeton</t>
   </si>
   <si>
     <t>Stanford</t>
   </si>
   <si>
-    <t>UNC Greensboro</t>
-  </si>
-  <si>
-    <t>St. Josephâ€™s</t>
-  </si>
-  <si>
     <t>Georgia Tech</t>
   </si>
   <si>
     <t xml:space="preserve">Cincinnati </t>
   </si>
   <si>
-    <t>BYU</t>
-  </si>
-  <si>
     <t>Kent State</t>
   </si>
   <si>
@@ -238,6 +217,30 @@
   </si>
   <si>
     <t xml:space="preserve">Michigan State </t>
+  </si>
+  <si>
+    <t>Mississippi</t>
+  </si>
+  <si>
+    <t>North Carolina</t>
+  </si>
+  <si>
+    <t>North Carolina-Greensboro</t>
+  </si>
+  <si>
+    <t>Saint Joseph's</t>
+  </si>
+  <si>
+    <t>Brigham Young</t>
+  </si>
+  <si>
+    <t>University of University of University of California</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sothern California </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Southern California </t>
   </si>
 </sst>
 </file>
@@ -591,11 +594,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{905AEC78-54CC-4D4D-B04C-ECD68DFC43D4}">
   <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E64"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="66.90625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -704,13 +710,13 @@
         <v>200001</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="C7">
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7">
         <v>14</v>
@@ -721,13 +727,13 @@
         <v>200001</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8">
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8">
         <v>7</v>
@@ -738,13 +744,13 @@
         <v>200001</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E9">
         <v>15</v>
@@ -789,7 +795,7 @@
         <v>200001</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="C12">
         <v>3</v>
@@ -806,13 +812,13 @@
         <v>200001</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13">
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E13">
         <v>10</v>
@@ -840,13 +846,13 @@
         <v>200001</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -857,7 +863,7 @@
         <v>200001</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -874,13 +880,13 @@
         <v>200001</v>
       </c>
       <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
         <v>21</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17" t="s">
-        <v>22</v>
       </c>
       <c r="E17">
         <v>16</v>
@@ -891,13 +897,13 @@
         <v>200001</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18">
         <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18">
         <v>8</v>
@@ -908,13 +914,13 @@
         <v>200001</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19">
         <v>12</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E19">
         <v>5</v>
@@ -925,13 +931,13 @@
         <v>200001</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C20">
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E20">
         <v>13</v>
@@ -942,13 +948,13 @@
         <v>200001</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="C21">
         <v>6</v>
       </c>
       <c r="D21" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E21">
         <v>11</v>
@@ -959,13 +965,13 @@
         <v>200001</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C22">
         <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E22">
         <v>14</v>
@@ -976,13 +982,13 @@
         <v>200001</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C23">
         <v>7</v>
       </c>
       <c r="D23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E23">
         <v>10</v>
@@ -993,13 +999,13 @@
         <v>200001</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C24">
         <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E24">
         <v>15</v>
@@ -1010,13 +1016,13 @@
         <v>200001</v>
       </c>
       <c r="B25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E25">
         <v>9</v>
@@ -1027,13 +1033,13 @@
         <v>200001</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C26">
         <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E26">
         <v>12</v>
@@ -1044,13 +1050,13 @@
         <v>200001</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="C27">
         <v>6</v>
       </c>
       <c r="D27" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E27">
         <v>3</v>
@@ -1061,13 +1067,13 @@
         <v>200001</v>
       </c>
       <c r="B28" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C28">
         <v>2</v>
       </c>
       <c r="D28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E28">
         <v>7</v>
@@ -1078,13 +1084,13 @@
         <v>200001</v>
       </c>
       <c r="B29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E29">
         <v>4</v>
@@ -1095,13 +1101,13 @@
         <v>200001</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="C30">
         <v>6</v>
       </c>
       <c r="D30" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E30">
         <v>2</v>
@@ -1112,13 +1118,13 @@
         <v>200001</v>
       </c>
       <c r="B31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="E31">
         <v>6</v>
@@ -1129,13 +1135,13 @@
         <v>200001</v>
       </c>
       <c r="B32" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E32">
         <v>16</v>
@@ -1146,13 +1152,13 @@
         <v>200001</v>
       </c>
       <c r="B33" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C33">
         <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="E33">
         <v>8</v>
@@ -1163,13 +1169,13 @@
         <v>200001</v>
       </c>
       <c r="B34" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C34">
         <v>12</v>
       </c>
       <c r="D34" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E34">
         <v>5</v>
@@ -1180,13 +1186,13 @@
         <v>200001</v>
       </c>
       <c r="B35" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C35">
         <v>13</v>
       </c>
       <c r="D35" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E35">
         <v>4</v>
@@ -1197,13 +1203,13 @@
         <v>200001</v>
       </c>
       <c r="B36" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C36">
         <v>11</v>
       </c>
       <c r="D36" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E36">
         <v>6</v>
@@ -1214,13 +1220,13 @@
         <v>200001</v>
       </c>
       <c r="B37" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C37">
         <v>3</v>
       </c>
       <c r="D37" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E37">
         <v>14</v>
@@ -1231,13 +1237,13 @@
         <v>200001</v>
       </c>
       <c r="B38" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C38">
         <v>7</v>
       </c>
       <c r="D38" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E38">
         <v>10</v>
@@ -1248,13 +1254,13 @@
         <v>200001</v>
       </c>
       <c r="B39" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C39">
         <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E39">
         <v>15</v>
@@ -1265,13 +1271,13 @@
         <v>200001</v>
       </c>
       <c r="B40" t="s">
+        <v>35</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
         <v>37</v>
-      </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="D40" t="s">
-        <v>39</v>
       </c>
       <c r="E40">
         <v>9</v>
@@ -1282,13 +1288,13 @@
         <v>200001</v>
       </c>
       <c r="B41" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C41">
         <v>12</v>
       </c>
       <c r="D41" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E41">
         <v>13</v>
@@ -1299,13 +1305,13 @@
         <v>200001</v>
       </c>
       <c r="B42" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C42">
         <v>11</v>
       </c>
       <c r="D42" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E42">
         <v>3</v>
@@ -1316,13 +1322,13 @@
         <v>200001</v>
       </c>
       <c r="B43" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C43">
         <v>7</v>
       </c>
       <c r="D43" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="E43">
         <v>2</v>
@@ -1333,13 +1339,13 @@
         <v>200001</v>
       </c>
       <c r="B44" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E44">
         <v>12</v>
@@ -1350,13 +1356,13 @@
         <v>200001</v>
       </c>
       <c r="B45" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C45">
         <v>11</v>
       </c>
       <c r="D45" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E45">
         <v>7</v>
@@ -1367,13 +1373,13 @@
         <v>200001</v>
       </c>
       <c r="B46" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C46">
         <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E46">
         <v>11</v>
@@ -1384,13 +1390,13 @@
         <v>200001</v>
       </c>
       <c r="B47" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="E47">
         <v>16</v>
@@ -1401,13 +1407,13 @@
         <v>200001</v>
       </c>
       <c r="B48" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C48">
         <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E48">
         <v>8</v>
@@ -1418,13 +1424,13 @@
         <v>200001</v>
       </c>
       <c r="B49" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C49">
         <v>5</v>
       </c>
       <c r="D49" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="E49">
         <v>12</v>
@@ -1435,13 +1441,13 @@
         <v>200001</v>
       </c>
       <c r="B50" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C50">
         <v>13</v>
       </c>
       <c r="D50" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E50">
         <v>4</v>
@@ -1452,13 +1458,13 @@
         <v>200001</v>
       </c>
       <c r="B51" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C51">
         <v>11</v>
       </c>
       <c r="D51" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E51">
         <v>6</v>
@@ -1469,13 +1475,13 @@
         <v>200001</v>
       </c>
       <c r="B52" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C52">
         <v>3</v>
       </c>
       <c r="D52" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E52">
         <v>14</v>
@@ -1486,13 +1492,13 @@
         <v>200001</v>
       </c>
       <c r="B53" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C53">
         <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E53">
         <v>7</v>
@@ -1503,13 +1509,13 @@
         <v>200001</v>
       </c>
       <c r="B54" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C54">
         <v>15</v>
       </c>
       <c r="D54" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E54">
         <v>2</v>
@@ -1520,13 +1526,13 @@
         <v>200001</v>
       </c>
       <c r="B55" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C55">
         <v>1</v>
       </c>
       <c r="D55" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E55">
         <v>9</v>
@@ -1537,13 +1543,13 @@
         <v>200001</v>
       </c>
       <c r="B56" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C56">
         <v>5</v>
       </c>
       <c r="D56" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E56">
         <v>13</v>
@@ -1554,13 +1560,13 @@
         <v>200001</v>
       </c>
       <c r="B57" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C57">
         <v>3</v>
       </c>
       <c r="D57" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E57">
         <v>11</v>
@@ -1571,13 +1577,13 @@
         <v>200001</v>
       </c>
       <c r="B58" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C58">
         <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E58">
         <v>15</v>
@@ -1588,13 +1594,13 @@
         <v>200001</v>
       </c>
       <c r="B59" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C59">
         <v>1</v>
       </c>
       <c r="D59" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E59">
         <v>5</v>
@@ -1605,13 +1611,13 @@
         <v>200001</v>
       </c>
       <c r="B60" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C60">
         <v>3</v>
       </c>
       <c r="D60" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E60">
         <v>10</v>
@@ -1622,13 +1628,13 @@
         <v>200001</v>
       </c>
       <c r="B61" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C61">
         <v>3</v>
       </c>
       <c r="D61" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -1639,13 +1645,13 @@
         <v>200001</v>
       </c>
       <c r="B62" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C62">
         <v>1</v>
       </c>
       <c r="D62" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E62">
         <v>3</v>
@@ -1656,13 +1662,13 @@
         <v>200001</v>
       </c>
       <c r="B63" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C63">
         <v>2</v>
       </c>
       <c r="D63" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -1673,13 +1679,13 @@
         <v>200001</v>
       </c>
       <c r="B64" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C64">
         <v>1</v>
       </c>
       <c r="D64" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E64">
         <v>2</v>
